--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-desired-masking-0.2/root_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-desired-masking-0.2/root_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="873">
   <si>
     <t>anchor score</t>
   </si>
@@ -100,688 +100,688 @@
     <t>risk</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>losses</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>accused</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>stolen</t>
+  </si>
+  <si>
+    <t>criminal</t>
+  </si>
+  <si>
+    <t>losing</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>madness</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>scare</t>
+  </si>
+  <si>
+    <t>bastards</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>threatening</t>
+  </si>
+  <si>
+    <t>combat</t>
+  </si>
+  <si>
+    <t>unfair</t>
+  </si>
+  <si>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>upset</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>infection</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>australia</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>shortages</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>fraudulent</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>fox</t>
+  </si>
+  <si>
+    <t>midst</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>blame</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>struggle</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>losses</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>suffering</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>threats</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>dead</t>
-  </si>
-  <si>
-    <t>killing</t>
-  </si>
-  <si>
-    <t>stolen</t>
-  </si>
-  <si>
-    <t>criminal</t>
-  </si>
-  <si>
-    <t>losing</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>destroy</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>madness</t>
-  </si>
-  <si>
-    <t>desperate</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>scare</t>
-  </si>
-  <si>
-    <t>bastards</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>threatening</t>
-  </si>
-  <si>
-    <t>combat</t>
-  </si>
-  <si>
-    <t>unfair</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>hurt</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>upset</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>infection</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>australia</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>response</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>per</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>services</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>fraudulent</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>fox</t>
-  </si>
-  <si>
-    <t>midst</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>delayed</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>social</t>
@@ -2998,10 +2998,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3059,7 +3059,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03203577314973759</v>
+        <v>0.03252345597077127</v>
       </c>
       <c r="C3">
         <v>237</v>
@@ -3109,7 +3109,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0319003147284079</v>
+        <v>0.03238593545639522</v>
       </c>
       <c r="C4">
         <v>235</v>
@@ -3159,7 +3159,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01332456270818617</v>
+        <v>0.01352740346062237</v>
       </c>
       <c r="C5">
         <v>41</v>
@@ -3180,7 +3180,7 @@
         <v>34</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K5">
         <v>0.009995040084299418</v>
@@ -3209,7 +3209,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.0121339023405288</v>
+        <v>0.01231861758669806</v>
       </c>
       <c r="C6">
         <v>34</v>
@@ -3230,7 +3230,7 @@
         <v>2411</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K6">
         <v>0.009449598755858378</v>
@@ -3259,7 +3259,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01158622301332644</v>
+        <v>0.01176260089869397</v>
       </c>
       <c r="C7">
         <v>31</v>
@@ -3280,7 +3280,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K7">
         <v>0.00888994561986229</v>
@@ -3309,7 +3309,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0112062430004246</v>
+        <v>0.0113768364234112</v>
       </c>
       <c r="C8">
         <v>29</v>
@@ -3330,7 +3330,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="K8">
         <v>0.008793207750133439</v>
@@ -3339,19 +3339,19 @@
         <v>226</v>
       </c>
       <c r="M8">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="N8">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3359,7 +3359,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.01040473541829033</v>
+        <v>0.01056312743515172</v>
       </c>
       <c r="C9">
         <v>25</v>
@@ -3380,7 +3380,7 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9">
         <v>0.008271954030582907</v>
@@ -3409,7 +3409,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.01019451707339</v>
+        <v>0.01034970892164629</v>
       </c>
       <c r="C10">
         <v>24</v>
@@ -3430,7 +3430,7 @@
         <v>1678</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K10">
         <v>0.00814692989902052</v>
@@ -3459,7 +3459,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.009979871622153025</v>
+        <v>0.01013179590765401</v>
       </c>
       <c r="C11">
         <v>23</v>
@@ -3480,7 +3480,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K11">
         <v>0.00806250347658052</v>
@@ -3509,7 +3509,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.009760506996548398</v>
+        <v>0.009909091878971776</v>
       </c>
       <c r="C12">
         <v>22</v>
@@ -3530,7 +3530,7 @@
         <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K12">
         <v>0.007825635758086926</v>
@@ -3559,7 +3559,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.009536097528060691</v>
+        <v>0.009681266209409499</v>
       </c>
       <c r="C13">
         <v>21</v>
@@ -3580,7 +3580,7 @@
         <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>255</v>
       </c>
       <c r="K13">
         <v>0.00771556507529726</v>
@@ -3589,19 +3589,19 @@
         <v>174</v>
       </c>
       <c r="M13">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3609,7 +3609,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.00882871076486993</v>
+        <v>0.008963110847920133</v>
       </c>
       <c r="C14">
         <v>18</v>
@@ -3630,7 +3630,7 @@
         <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K14">
         <v>0.006945486488092403</v>
@@ -3659,7 +3659,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.00882871076486993</v>
+        <v>0.008963110847920133</v>
       </c>
       <c r="C15">
         <v>18</v>
@@ -3680,7 +3680,7 @@
         <v>36</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K15">
         <v>0.006745574372646934</v>
@@ -3709,7 +3709,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.008579964627243237</v>
+        <v>0.008710578030398063</v>
       </c>
       <c r="C16">
         <v>17</v>
@@ -3730,7 +3730,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K16">
         <v>0.006643362789072228</v>
@@ -3759,7 +3759,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.008323788334632265</v>
+        <v>0.008450501948121377</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -3780,7 +3780,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K17">
         <v>0.006617563224466327</v>
@@ -3809,7 +3809,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.008059473399346583</v>
+        <v>0.008182163328041857</v>
       </c>
       <c r="C18">
         <v>15</v>
@@ -3830,7 +3830,7 @@
         <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K18">
         <v>0.006487026471559002</v>
@@ -3859,7 +3859,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.008059473399346583</v>
+        <v>0.008182163328041857</v>
       </c>
       <c r="C19">
         <v>15</v>
@@ -3880,7 +3880,7 @@
         <v>9</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K19">
         <v>0.006217736828501461</v>
@@ -3909,7 +3909,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.008059473399346583</v>
+        <v>0.008182163328041857</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K20">
         <v>0.00607861996520604</v>
@@ -3959,7 +3959,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.007786191027054894</v>
+        <v>0.007904720759033982</v>
       </c>
       <c r="C21">
         <v>14</v>
@@ -3980,7 +3980,7 @@
         <v>17</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K21">
         <v>0.005760749377448844</v>
@@ -4009,7 +4009,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.007786191027054894</v>
+        <v>0.007904720759033982</v>
       </c>
       <c r="C22">
         <v>14</v>
@@ -4030,7 +4030,7 @@
         <v>63</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K22">
         <v>0.005730977863537501</v>
@@ -4059,28 +4059,28 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.007786191027054894</v>
+        <v>0.007904720759033982</v>
       </c>
       <c r="C23">
         <v>14</v>
       </c>
       <c r="D23">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="E23">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F23">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K23">
         <v>0.005701050881630199</v>
@@ -4109,28 +4109,28 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007786191027054894</v>
+        <v>0.007617179519339989</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>214</v>
+        <v>13</v>
       </c>
       <c r="E24">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K24">
         <v>0.005455728385428789</v>
@@ -4159,7 +4159,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.007502961411656409</v>
+        <v>0.007617179519339989</v>
       </c>
       <c r="C25">
         <v>13</v>
@@ -4177,10 +4177,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K25">
         <v>0.005296634934415576</v>
@@ -4209,7 +4209,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.007502961411656409</v>
+        <v>0.007617179519339989</v>
       </c>
       <c r="C26">
         <v>13</v>
@@ -4227,10 +4227,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K26">
         <v>0.005264239309819711</v>
@@ -4259,13 +4259,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.007502961411656409</v>
+        <v>0.007318349361803001</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K27">
         <v>0.005031633202957904</v>
@@ -4309,7 +4309,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.007208612153516107</v>
+        <v>0.007318349361803001</v>
       </c>
       <c r="C28">
         <v>12</v>
@@ -4327,10 +4327,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K28">
         <v>0.004823336602870062</v>
@@ -4359,13 +4359,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.007208612153516107</v>
+        <v>0.00700678606302149</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4377,10 +4377,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K29">
         <v>0.004787739536270298</v>
@@ -4409,28 +4409,28 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.007208612153516107</v>
+        <v>0.00700678606302149</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="E30">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K30">
         <v>0.004751875813796626</v>
@@ -4459,7 +4459,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.006901720685078114</v>
+        <v>0.00700678606302149</v>
       </c>
       <c r="C31">
         <v>11</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K31">
         <v>0.004568335929268274</v>
@@ -4509,13 +4509,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.006901720685078114</v>
+        <v>0.0066807083819384</v>
       </c>
       <c r="C32">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -4527,10 +4527,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K32">
         <v>0.004492821043376049</v>
@@ -4559,28 +4559,28 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.006901720685078114</v>
+        <v>0.0066807083819384</v>
       </c>
       <c r="C33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>218</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K33">
         <v>0.004454583573172949</v>
@@ -4609,28 +4609,28 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.006580532474644443</v>
+        <v>0.0066807083819384</v>
       </c>
       <c r="C34">
         <v>10</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>271</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>29</v>
+        <v>623</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K34">
         <v>0.004258248962106414</v>
@@ -4659,28 +4659,28 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.006580532474644443</v>
+        <v>0.0066807083819384</v>
       </c>
       <c r="C35">
         <v>10</v>
       </c>
       <c r="D35">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="E35">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F35">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K35">
         <v>0.004177132029088809</v>
@@ -4709,25 +4709,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006580532474644443</v>
+        <v>0.0066807083819384</v>
       </c>
       <c r="C36">
         <v>10</v>
       </c>
       <c r="D36">
-        <v>271</v>
+        <v>10</v>
       </c>
       <c r="E36">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>623</v>
+        <v>12</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>256</v>
@@ -4759,28 +4759,28 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.006580532474644443</v>
+        <v>0.006337876461091033</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E37">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>252</v>
+        <v>2</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K37">
         <v>0.004135977015291454</v>
@@ -4809,13 +4809,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006580532474644443</v>
+        <v>0.006337876461091033</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -4827,10 +4827,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K38">
         <v>0.00405241331013736</v>
@@ -4859,7 +4859,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.006242841250974199</v>
+        <v>0.006337876461091033</v>
       </c>
       <c r="C39">
         <v>9</v>
@@ -4877,10 +4877,10 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K39">
         <v>0.00405241331013736</v>
@@ -4909,7 +4909,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.006242841250974199</v>
+        <v>0.006337876461091033</v>
       </c>
       <c r="C40">
         <v>9</v>
@@ -4927,10 +4927,10 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K40">
         <v>0.004009978493553058</v>
@@ -4959,7 +4959,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.006242841250974199</v>
+        <v>0.006337876461091033</v>
       </c>
       <c r="C41">
         <v>9</v>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K41">
         <v>0.003745286479594818</v>
@@ -5009,7 +5009,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.006242841250974199</v>
+        <v>0.006337876461091033</v>
       </c>
       <c r="C42">
         <v>9</v>
@@ -5027,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>257</v>
@@ -5059,7 +5059,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.006242841250974199</v>
+        <v>0.006337876461091033</v>
       </c>
       <c r="C43">
         <v>9</v>
@@ -5077,10 +5077,10 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K43">
         <v>0.003699330303827351</v>
@@ -5109,7 +5109,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.006242841250974199</v>
+        <v>0.006337876461091033</v>
       </c>
       <c r="C44">
         <v>9</v>
@@ -5127,10 +5127,10 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K44">
         <v>0.003557901958254922</v>
@@ -5159,25 +5159,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.006242841250974199</v>
+        <v>0.006337876461091033</v>
       </c>
       <c r="C45">
         <v>9</v>
       </c>
       <c r="D45">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>729</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>258</v>
@@ -5209,7 +5209,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.006242841250974199</v>
+        <v>0.006337876461091033</v>
       </c>
       <c r="C46">
         <v>9</v>
@@ -5227,10 +5227,10 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K46">
         <v>0.003509492873213141</v>
@@ -5259,25 +5259,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.006242841250974199</v>
+        <v>0.005975407231946756</v>
       </c>
       <c r="C47">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D47">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="E47">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>729</v>
+        <v>72</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>259</v>
@@ -5309,13 +5309,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.006242841250974199</v>
+        <v>0.005975407231946756</v>
       </c>
       <c r="C48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>260</v>
@@ -5359,7 +5359,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.005885807176579954</v>
+        <v>0.005975407231946756</v>
       </c>
       <c r="C49">
         <v>8</v>
@@ -5377,10 +5377,10 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K49">
         <v>0.003410614019834707</v>
@@ -5409,28 +5409,28 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.005885807176579954</v>
+        <v>0.005975407231946756</v>
       </c>
       <c r="C50">
         <v>8</v>
       </c>
       <c r="D50">
-        <v>8</v>
+        <v>239</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>662</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K50">
         <v>0.003308781612233163</v>
@@ -5459,25 +5459,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.005885807176579954</v>
+        <v>0.005975407231946756</v>
       </c>
       <c r="C51">
         <v>8</v>
       </c>
       <c r="D51">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>261</v>
@@ -5509,28 +5509,28 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.005885807176579954</v>
+        <v>0.005589481652099003</v>
       </c>
       <c r="C52">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D52">
-        <v>239</v>
+        <v>7</v>
       </c>
       <c r="E52">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>662</v>
+        <v>1</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K52">
         <v>0.003256671558513677</v>
@@ -5559,25 +5559,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.005885807176579954</v>
+        <v>0.005589481652099003</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D53">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="E53">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>245</v>
+        <v>30</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>262</v>
@@ -5609,7 +5609,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.005505668474844365</v>
+        <v>0.005589481652099003</v>
       </c>
       <c r="C54">
         <v>7</v>
@@ -5627,10 +5627,10 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K54">
         <v>0.003203714020104092</v>
@@ -5659,25 +5659,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.005505668474844365</v>
+        <v>0.005589481652099003</v>
       </c>
       <c r="C55">
         <v>7</v>
       </c>
       <c r="D55">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>30</v>
+        <v>276</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>263</v>
@@ -5709,28 +5709,28 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.005505668474844365</v>
+        <v>0.005589481652099003</v>
       </c>
       <c r="C56">
         <v>7</v>
       </c>
       <c r="D56">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K56">
         <v>0.003149866251952793</v>
@@ -5759,25 +5759,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.005505668474844365</v>
+        <v>0.005589481652099003</v>
       </c>
       <c r="C57">
         <v>7</v>
       </c>
       <c r="D57">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="E57">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F57">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>276</v>
+        <v>18</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>264</v>
@@ -5809,28 +5809,28 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.005505668474844365</v>
+        <v>0.005589481652099003</v>
       </c>
       <c r="C58">
         <v>7</v>
       </c>
       <c r="D58">
-        <v>102</v>
+        <v>299</v>
       </c>
       <c r="E58">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F58">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K58">
         <v>0.003095081790158502</v>
@@ -5859,28 +5859,28 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.005505668474844365</v>
+        <v>0.005589481652099003</v>
       </c>
       <c r="C59">
         <v>7</v>
       </c>
       <c r="D59">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="E59">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K59">
         <v>0.00303930998260302</v>
@@ -5909,28 +5909,28 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.005505668474844365</v>
+        <v>0.005174854460823144</v>
       </c>
       <c r="C60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D60">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="E60">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K60">
         <v>0.00303930998260302</v>
@@ -5959,13 +5959,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.005505668474844365</v>
+        <v>0.005174854460823144</v>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D61">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -5977,10 +5977,10 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>142</v>
+        <v>3</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K61">
         <v>0.00303930998260302</v>
@@ -6009,7 +6009,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.005097258536695</v>
+        <v>0.005174854460823144</v>
       </c>
       <c r="C62">
         <v>6</v>
@@ -6027,10 +6027,10 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K62">
         <v>0.002982495440554769</v>
@@ -6059,7 +6059,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.005097258536695</v>
+        <v>0.005174854460823144</v>
       </c>
       <c r="C63">
         <v>6</v>
@@ -6077,10 +6077,10 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K63">
         <v>0.002982495440554769</v>
@@ -6109,7 +6109,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.005097258536695</v>
+        <v>0.005174854460823144</v>
       </c>
       <c r="C64">
         <v>6</v>
@@ -6127,10 +6127,10 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K64">
         <v>0.002865488931768751</v>
@@ -6159,7 +6159,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.005097258536695</v>
+        <v>0.005174854460823144</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -6177,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>265</v>
@@ -6209,25 +6209,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.005097258536695</v>
+        <v>0.005174854460823144</v>
       </c>
       <c r="C66">
         <v>6</v>
       </c>
       <c r="D66">
-        <v>6</v>
+        <v>185</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>3016</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>266</v>
@@ -6259,28 +6259,28 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.005097258536695</v>
+        <v>0.005174854460823144</v>
       </c>
       <c r="C67">
         <v>6</v>
       </c>
       <c r="D67">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>7</v>
+        <v>943</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K67">
         <v>0.002805156092032818</v>
@@ -6309,25 +6309,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.005097258536695</v>
+        <v>0.00472397419999845</v>
       </c>
       <c r="C68">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D68">
-        <v>185</v>
+        <v>5</v>
       </c>
       <c r="E68">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>3016</v>
+        <v>3</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>267</v>
@@ -6359,25 +6359,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.005097258536695</v>
+        <v>0.00472397419999845</v>
       </c>
       <c r="C69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D69">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E69">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>943</v>
+        <v>33</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>268</v>
@@ -6409,7 +6409,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004653139136639378</v>
+        <v>0.00472397419999845</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -6427,10 +6427,10 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K70">
         <v>0.002743496780251154</v>
@@ -6459,7 +6459,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.004653139136639378</v>
+        <v>0.00472397419999845</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -6477,10 +6477,10 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K71">
         <v>0.002743496780251154</v>
@@ -6509,7 +6509,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.004653139136639378</v>
+        <v>0.00472397419999845</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -6527,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>269</v>
@@ -6559,28 +6559,28 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.004653139136639378</v>
+        <v>0.00472397419999845</v>
       </c>
       <c r="C73">
         <v>5</v>
       </c>
       <c r="D73">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>11</v>
+        <v>586</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K73">
         <v>0.002743496780251154</v>
@@ -6609,28 +6609,28 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.004653139136639378</v>
+        <v>0.00472397419999845</v>
       </c>
       <c r="C74">
         <v>5</v>
       </c>
       <c r="D74">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K74">
         <v>0.002680419457067879</v>
@@ -6659,28 +6659,28 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.004653139136639378</v>
+        <v>0.00472397419999845</v>
       </c>
       <c r="C75">
         <v>5</v>
       </c>
       <c r="D75">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="E75">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="F75">
-        <v>0.07999999999999996</v>
+        <v>0.13</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>586</v>
+        <v>73</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K75">
         <v>0.002680419457067879</v>
@@ -6709,25 +6709,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.004653139136639378</v>
+        <v>0.00472397419999845</v>
       </c>
       <c r="C76">
         <v>5</v>
       </c>
       <c r="D76">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="E76">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="F76">
-        <v>0.14</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>270</v>
@@ -6759,25 +6759,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.004653139136639378</v>
+        <v>0.004225250974060689</v>
       </c>
       <c r="C77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="E77">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>271</v>
@@ -6809,28 +6809,28 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.004653139136639378</v>
+        <v>0.004225250974060689</v>
       </c>
       <c r="C78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="E78">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K78">
         <v>0.002615821543685211</v>
@@ -6859,7 +6859,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.004161894167316132</v>
+        <v>0.004225250974060689</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -6877,7 +6877,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>272</v>
@@ -6909,7 +6909,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.004161894167316132</v>
+        <v>0.004225250974060689</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -6927,10 +6927,10 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K80">
         <v>0.002615821543685211</v>
@@ -6959,7 +6959,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.004161894167316132</v>
+        <v>0.004225250974060689</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -6977,10 +6977,10 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K81">
         <v>0.002549587462902047</v>
@@ -7009,7 +7009,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.004161894167316132</v>
+        <v>0.004225250974060689</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -7027,10 +7027,10 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K82">
         <v>0.002549587462902047</v>
@@ -7059,7 +7059,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.004161894167316132</v>
+        <v>0.004225250974060689</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -7077,10 +7077,10 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K83">
         <v>0.002549587462902047</v>
@@ -7109,7 +7109,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.004161894167316132</v>
+        <v>0.004225250974060689</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -7127,10 +7127,10 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K84">
         <v>0.002549587462902047</v>
@@ -7159,25 +7159,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.004161894167316132</v>
+        <v>0.004225250974060689</v>
       </c>
       <c r="C85">
         <v>4</v>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>273</v>
@@ -7209,28 +7209,28 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.004161894167316132</v>
+        <v>0.004225250974060689</v>
       </c>
       <c r="C86">
         <v>4</v>
       </c>
       <c r="D86">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K86">
         <v>0.002481586209174872</v>
@@ -7259,28 +7259,28 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.004161894167316132</v>
+        <v>0.004225250974060689</v>
       </c>
       <c r="C87">
         <v>4</v>
       </c>
       <c r="D87">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E87">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F87">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K87">
         <v>0.002411668301435031</v>
@@ -7309,25 +7309,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.004161894167316132</v>
+        <v>0.0036591746809015</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88">
-        <v>132</v>
+        <v>3</v>
       </c>
       <c r="E88">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>274</v>
@@ -7359,28 +7359,28 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.004161894167316132</v>
+        <v>0.0036591746809015</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="E89">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K89">
         <v>0.002411668301435031</v>
@@ -7409,7 +7409,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.003604306076758053</v>
+        <v>0.0036591746809015</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>275</v>
@@ -7459,7 +7459,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.003604306076758053</v>
+        <v>0.0036591746809015</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>276</v>
@@ -7509,7 +7509,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.003604306076758053</v>
+        <v>0.0036591746809015</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -7527,7 +7527,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>277</v>
@@ -7559,25 +7559,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.003604306076758053</v>
+        <v>0.0036591746809015</v>
       </c>
       <c r="C93">
         <v>3</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <v>5</v>
+        <v>208</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>278</v>
@@ -7609,25 +7609,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.003604306076758053</v>
+        <v>0.0036591746809015</v>
       </c>
       <c r="C94">
         <v>3</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>1117</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>279</v>
@@ -7659,28 +7659,28 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.003604306076758053</v>
+        <v>0.0036591746809015</v>
       </c>
       <c r="C95">
         <v>3</v>
       </c>
       <c r="D95">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="E95">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F95">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>208</v>
+        <v>97</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K95">
         <v>0.002265367908598019</v>
@@ -7709,28 +7709,28 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.003604306076758053</v>
+        <v>0.0036591746809015</v>
       </c>
       <c r="C96">
         <v>3</v>
       </c>
       <c r="D96">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E96">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F96">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>1117</v>
+        <v>33</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K96">
         <v>0.002188553322148075</v>
@@ -7759,25 +7759,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.003604306076758053</v>
+        <v>0.0036591746809015</v>
       </c>
       <c r="C97">
         <v>3</v>
       </c>
       <c r="D97">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E97">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="F97">
-        <v>0.08999999999999997</v>
+        <v>0.13</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>280</v>
@@ -7809,25 +7809,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.003604306076758053</v>
+        <v>0.0036591746809015</v>
       </c>
       <c r="C98">
         <v>3</v>
       </c>
       <c r="D98">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="E98">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F98">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>281</v>
@@ -7859,25 +7859,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.003604306076758053</v>
+        <v>0.0036591746809015</v>
       </c>
       <c r="C99">
         <v>3</v>
       </c>
       <c r="D99">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="E99">
-        <v>0.87</v>
+        <v>0.97</v>
       </c>
       <c r="F99">
-        <v>0.13</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>282</v>
@@ -7909,25 +7909,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.003604306076758053</v>
+        <v>0.0036591746809015</v>
       </c>
       <c r="C100">
         <v>3</v>
       </c>
       <c r="D100">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E100">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F100">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>202</v>
+        <v>103</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>283</v>
@@ -7959,28 +7959,28 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003604306076758053</v>
+        <v>0.0036591746809015</v>
       </c>
       <c r="C101">
         <v>3</v>
       </c>
       <c r="D101">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="E101">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="F101">
-        <v>0.03000000000000003</v>
+        <v>0.17</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K101">
         <v>0.002108942750874236</v>
@@ -8009,25 +8009,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.003604306076758053</v>
+        <v>0.0036591746809015</v>
       </c>
       <c r="C102">
         <v>3</v>
       </c>
       <c r="D102">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="E102">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="F102">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>284</v>
@@ -8059,25 +8059,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.003604306076758053</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D103">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E103">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>285</v>
@@ -8109,25 +8109,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.003604306076758053</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="E104">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>286</v>
@@ -8159,7 +8159,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>287</v>
@@ -8209,7 +8209,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -8227,10 +8227,10 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K106">
         <v>0.00202620665506868</v>
@@ -8259,7 +8259,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -8309,7 +8309,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -8327,10 +8327,10 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K108">
         <v>0.00202620665506868</v>
@@ -8359,7 +8359,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>289</v>
@@ -8409,7 +8409,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C110">
         <v>2</v>
@@ -8427,10 +8427,10 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K110">
         <v>0.00202620665506868</v>
@@ -8459,7 +8459,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -8477,7 +8477,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>290</v>
@@ -8509,25 +8509,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>291</v>
@@ -8559,25 +8559,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
-        <v>164</v>
+        <v>37</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>292</v>
@@ -8609,25 +8609,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C114">
         <v>2</v>
       </c>
       <c r="D114">
-        <v>125</v>
+        <v>2</v>
       </c>
       <c r="E114">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>293</v>
@@ -8659,28 +8659,28 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
       <c r="D115">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E115">
-        <v>0.93</v>
+        <v>0.82</v>
       </c>
       <c r="F115">
-        <v>0.06999999999999995</v>
+        <v>0.18</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K115">
         <v>0.00193994517747905</v>
@@ -8709,25 +8709,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>294</v>
@@ -8759,28 +8759,28 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
       <c r="D117">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E117">
-        <v>0.82</v>
+        <v>0.71</v>
       </c>
       <c r="F117">
-        <v>0.18</v>
+        <v>0.29</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K117">
         <v>0.00193994517747905</v>
@@ -8809,25 +8809,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C118">
         <v>2</v>
       </c>
       <c r="D118">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E118">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F118">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>295</v>
@@ -8859,28 +8859,28 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C119">
         <v>2</v>
       </c>
       <c r="D119">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E119">
-        <v>0.71</v>
+        <v>0.93</v>
       </c>
       <c r="F119">
-        <v>0.29</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K119">
         <v>0.00193994517747905</v>
@@ -8909,28 +8909,28 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
       <c r="D120">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="E120">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F120">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K120">
         <v>0.001849665151913676</v>
@@ -8959,28 +8959,28 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C121">
         <v>2</v>
       </c>
       <c r="D121">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E121">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F121">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K121">
         <v>0.001849665151913676</v>
@@ -9009,25 +9009,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C122">
         <v>2</v>
       </c>
       <c r="D122">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="E122">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F122">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>91</v>
+        <v>424</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>296</v>
@@ -9059,25 +9059,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C123">
         <v>2</v>
       </c>
       <c r="D123">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E123">
-        <v>0.92</v>
+        <v>0.6</v>
       </c>
       <c r="F123">
-        <v>0.07999999999999996</v>
+        <v>0.4</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>297</v>
@@ -9109,25 +9109,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C124">
         <v>2</v>
       </c>
       <c r="D124">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="E124">
-        <v>0.99</v>
+        <v>0.82</v>
       </c>
       <c r="F124">
-        <v>0.01000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>424</v>
+        <v>23</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>298</v>
@@ -9159,25 +9159,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C125">
         <v>2</v>
       </c>
       <c r="D125">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E125">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="F125">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>299</v>
@@ -9209,25 +9209,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C126">
         <v>2</v>
       </c>
       <c r="D126">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="E126">
-        <v>0.82</v>
+        <v>0.96</v>
       </c>
       <c r="F126">
-        <v>0.18</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>300</v>
@@ -9259,25 +9259,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C127">
         <v>2</v>
       </c>
       <c r="D127">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E127">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="F127">
-        <v>0.25</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>18</v>
+        <v>524</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>301</v>
@@ -9309,28 +9309,28 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
       <c r="D128">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E128">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F128">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K128">
         <v>0.00175474643660657</v>
@@ -9359,25 +9359,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
       <c r="D129">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E129">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="F129">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>524</v>
+        <v>214</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>302</v>
@@ -9409,28 +9409,28 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
       <c r="D130">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E130">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F130">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K130">
         <v>0.00175474643660657</v>
@@ -9459,28 +9459,28 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C131">
         <v>2</v>
       </c>
       <c r="D131">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E131">
-        <v>0.96</v>
+        <v>0.82</v>
       </c>
       <c r="F131">
-        <v>0.04000000000000004</v>
+        <v>0.18</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K131">
         <v>0.00175474643660657</v>
@@ -9509,25 +9509,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
       <c r="D132">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E132">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F132">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>303</v>
@@ -9559,25 +9559,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C133">
         <v>2</v>
       </c>
       <c r="D133">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="E133">
-        <v>0.82</v>
+        <v>0.97</v>
       </c>
       <c r="F133">
-        <v>0.18</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>304</v>
@@ -9609,25 +9609,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C134">
         <v>2</v>
       </c>
       <c r="D134">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E134">
-        <v>0.71</v>
+        <v>0.9</v>
       </c>
       <c r="F134">
-        <v>0.29</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>305</v>
@@ -9659,28 +9659,28 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C135">
         <v>2</v>
       </c>
       <c r="D135">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="E135">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F135">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K135">
         <v>0.00175474643660657</v>
@@ -9709,28 +9709,28 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
       <c r="D136">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E136">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K136">
         <v>0.00175474643660657</v>
@@ -9759,28 +9759,28 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C137">
         <v>2</v>
       </c>
       <c r="D137">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="E137">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F137">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K137">
         <v>0.00175474643660657</v>
@@ -9809,13 +9809,13 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002942903588289977</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -9827,10 +9827,10 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K138">
         <v>0.00175474643660657</v>
@@ -9859,25 +9859,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002942903588289977</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E139">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>306</v>
@@ -9909,7 +9909,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -9927,10 +9927,10 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K140">
         <v>0.001654390806116582</v>
@@ -9959,7 +9959,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -9977,10 +9977,10 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K141">
         <v>0.001654390806116582</v>
@@ -10009,7 +10009,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>307</v>
@@ -10059,7 +10059,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10077,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>308</v>
@@ -10109,7 +10109,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>309</v>
@@ -10159,7 +10159,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10177,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>310</v>
@@ -10209,7 +10209,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10227,7 +10227,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>311</v>
@@ -10259,7 +10259,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10277,10 +10277,10 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K147">
         <v>0.001654390806116582</v>
@@ -10309,7 +10309,7 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -10359,7 +10359,7 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -10377,7 +10377,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>313</v>
@@ -10409,25 +10409,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>314</v>
@@ -10459,25 +10459,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>315</v>
@@ -10509,25 +10509,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E152">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F152">
-        <v>0.17</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>316</v>
@@ -10559,25 +10559,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E153">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F153">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>317</v>
@@ -10609,25 +10609,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E154">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F154">
-        <v>0.09999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>318</v>
@@ -10659,28 +10659,28 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E155">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F155">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K155">
         <v>0.001547540895079251</v>
@@ -10709,25 +10709,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E156">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>319</v>
@@ -10759,25 +10759,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E157">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F157">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>320</v>
@@ -10809,25 +10809,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>321</v>
@@ -10859,25 +10859,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E159">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F159">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>322</v>
@@ -10909,28 +10909,28 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E160">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K160">
         <v>0.001547540895079251</v>
@@ -10959,28 +10959,28 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E161">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F161">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K161">
         <v>0.001547540895079251</v>
@@ -11009,28 +11009,28 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K162">
         <v>0.001432744465884375</v>
@@ -11059,25 +11059,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E163">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>323</v>
@@ -11109,28 +11109,28 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K164">
         <v>0.001432744465884375</v>
@@ -11159,25 +11159,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>324</v>
@@ -11209,7 +11209,7 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -11227,7 +11227,7 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>325</v>
@@ -11259,25 +11259,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E167">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F167">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>326</v>
@@ -11309,28 +11309,28 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K168">
         <v>0.001432744465884375</v>
@@ -11359,25 +11359,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E169">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F169">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>327</v>
@@ -11409,25 +11409,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E170">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F170">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>328</v>
@@ -11459,25 +11459,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E171">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F171">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>329</v>
@@ -11509,25 +11509,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E172">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F172">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>330</v>
@@ -11559,25 +11559,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="E173">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F173">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>331</v>
@@ -11609,25 +11609,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+      <c r="G174" t="b">
+        <v>0</v>
+      </c>
+      <c r="H174">
         <v>15</v>
-      </c>
-      <c r="E174">
-        <v>0.93</v>
-      </c>
-      <c r="F174">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="G174" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174">
-        <v>18</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>332</v>
@@ -11659,25 +11659,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E175">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>333</v>
@@ -11709,25 +11709,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>334</v>
@@ -11759,28 +11759,28 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K177">
         <v>0.001432744465884375</v>
@@ -11809,25 +11809,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E178">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>335</v>
@@ -11859,7 +11859,7 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -11877,7 +11877,7 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>336</v>
@@ -11909,25 +11909,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>337</v>
@@ -11959,25 +11959,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E181">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F181">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>338</v>
@@ -12009,28 +12009,28 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E182">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F182">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K182">
         <v>0.001432744465884375</v>
@@ -12059,25 +12059,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E183">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F183">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>339</v>
@@ -12109,19 +12109,19 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E184">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F184">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
@@ -12159,25 +12159,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E185">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F185">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>341</v>
@@ -12209,25 +12209,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E186">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F186">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>342</v>
@@ -12259,25 +12259,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E187">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F187">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>343</v>
@@ -12309,7 +12309,7 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -12327,10 +12327,10 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K188">
         <v>0.001307910771842605</v>
@@ -12359,28 +12359,28 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E189">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="F189">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K189">
         <v>0.001307910771842605</v>
@@ -12409,25 +12409,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E190">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F190">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>344</v>
@@ -12459,25 +12459,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E191">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F191">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>345</v>
@@ -12509,28 +12509,28 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E192">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F192">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K192">
         <v>0.001307910771842605</v>
@@ -12559,25 +12559,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E193">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>346</v>
@@ -12609,25 +12609,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E194">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F194">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>347</v>
@@ -12659,25 +12659,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>348</v>
@@ -12709,25 +12709,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E196">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>349</v>
@@ -12759,25 +12759,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E197">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F197">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>350</v>
@@ -12809,25 +12809,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>351</v>
@@ -12859,28 +12859,28 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E199">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K199">
         <v>0.001307910771842605</v>
@@ -12909,25 +12909,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E200">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F200">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>352</v>
@@ -12959,25 +12959,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>353</v>
@@ -13009,25 +13009,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E202">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F202">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>354</v>
@@ -13059,25 +13059,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="E203">
-        <v>0.99</v>
+        <v>0.75</v>
       </c>
       <c r="F203">
-        <v>0.01000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>355</v>
@@ -13109,28 +13109,28 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="E204">
-        <v>0.88</v>
+        <v>0.99</v>
       </c>
       <c r="F204">
-        <v>0.12</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K204">
         <v>0.001307910771842605</v>
@@ -13159,28 +13159,28 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E205">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F205">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K205">
         <v>0.001307910771842605</v>
@@ -13209,25 +13209,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="E206">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="F206">
-        <v>0.01000000000000001</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>356</v>
@@ -13259,25 +13259,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E207">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="F207">
-        <v>0.05000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>357</v>
@@ -13309,25 +13309,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E208">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F208">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>358</v>
@@ -13359,25 +13359,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E209">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F209">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>359</v>
@@ -13409,28 +13409,28 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E210">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210">
-        <v>25</v>
+        <v>372</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K210">
         <v>0.001307910771842605</v>
@@ -13459,25 +13459,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E211">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F211">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>360</v>
@@ -13509,25 +13509,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212">
-        <v>372</v>
+        <v>114</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>361</v>
@@ -13559,25 +13559,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E213">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F213">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>362</v>
@@ -13609,25 +13609,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="E214">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="F214">
-        <v>0.02000000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>363</v>
@@ -13659,25 +13659,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E215">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F215">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>364</v>
@@ -13709,25 +13709,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E216">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F216">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>96</v>
+        <v>214</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>365</v>
@@ -13759,7 +13759,7 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -13777,7 +13777,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>366</v>
@@ -13809,25 +13809,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E218">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F218">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>367</v>
@@ -13859,25 +13859,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E219">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="F219">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>368</v>
@@ -13909,25 +13909,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E220">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="F220">
-        <v>0.04000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>369</v>
@@ -13959,25 +13959,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E221">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="F221">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>118</v>
+        <v>200</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>370</v>
@@ -14009,25 +14009,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E222">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="F222">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>371</v>
@@ -14059,28 +14059,28 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E223">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="F223">
-        <v>0.04000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K223">
         <v>0.001169830957737714</v>
@@ -14109,25 +14109,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E224">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="F224">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>372</v>
@@ -14159,25 +14159,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E225">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="F225">
-        <v>0.14</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>53</v>
+        <v>262</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>373</v>
@@ -14209,25 +14209,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E226">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="F226">
-        <v>0.11</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>374</v>
@@ -14259,25 +14259,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="E227">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F227">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>262</v>
+        <v>103</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>375</v>
@@ -14309,25 +14309,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E228">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="F228">
-        <v>0.09999999999999998</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>376</v>
@@ -14359,25 +14359,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="E229">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F229">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>377</v>
@@ -14409,25 +14409,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E230">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F230">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>378</v>
@@ -14459,25 +14459,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E231">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F231">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>379</v>
@@ -14509,25 +14509,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E232">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F232">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>380</v>
@@ -14559,25 +14559,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E233">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F233">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>381</v>
@@ -14609,25 +14609,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E234">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F234">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>382</v>
@@ -14659,25 +14659,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="E235">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F235">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>152</v>
+        <v>291</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>383</v>
@@ -14709,25 +14709,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E236">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H236">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>384</v>
@@ -14759,25 +14759,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="E237">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H237">
-        <v>291</v>
+        <v>9</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>385</v>
@@ -14809,7 +14809,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -14827,7 +14827,7 @@
         <v>0</v>
       </c>
       <c r="H238">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>386</v>
@@ -14859,25 +14859,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F239">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H239">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>387</v>
@@ -14909,25 +14909,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F240">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H240">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>388</v>
@@ -14959,25 +14959,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E241">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F241">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>389</v>
@@ -15009,28 +15009,28 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E242">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F242">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K242">
         <v>0.001169830957737714</v>
@@ -15059,25 +15059,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
+        <v>3</v>
+      </c>
+      <c r="E243">
+        <v>0.67</v>
+      </c>
+      <c r="F243">
+        <v>0.33</v>
+      </c>
+      <c r="G243" t="b">
+        <v>1</v>
+      </c>
+      <c r="H243">
         <v>7</v>
-      </c>
-      <c r="E243">
-        <v>0.86</v>
-      </c>
-      <c r="F243">
-        <v>0.14</v>
-      </c>
-      <c r="G243" t="b">
-        <v>1</v>
-      </c>
-      <c r="H243">
-        <v>59</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>390</v>
@@ -15109,25 +15109,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E244">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H244">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>391</v>
@@ -15159,28 +15159,28 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E245">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H245">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K245">
         <v>0.001169830957737714</v>
@@ -15209,7 +15209,7 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -15227,7 +15227,7 @@
         <v>0</v>
       </c>
       <c r="H246">
-        <v>9</v>
+        <v>251</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>392</v>
@@ -15259,7 +15259,7 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -15277,7 +15277,7 @@
         <v>0</v>
       </c>
       <c r="H247">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>393</v>
@@ -15305,30 +15305,6 @@
       </c>
     </row>
     <row r="248" spans="1:17">
-      <c r="A248" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B248">
-        <v>0.002080947083658066</v>
-      </c>
-      <c r="C248">
-        <v>1</v>
-      </c>
-      <c r="D248">
-        <v>1</v>
-      </c>
-      <c r="E248">
-        <v>0</v>
-      </c>
-      <c r="F248">
-        <v>1</v>
-      </c>
-      <c r="G248" t="b">
-        <v>0</v>
-      </c>
-      <c r="H248">
-        <v>251</v>
-      </c>
       <c r="J248" s="1" t="s">
         <v>394</v>
       </c>
@@ -15355,30 +15331,6 @@
       </c>
     </row>
     <row r="249" spans="1:17">
-      <c r="A249" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B249">
-        <v>0.002080947083658066</v>
-      </c>
-      <c r="C249">
-        <v>1</v>
-      </c>
-      <c r="D249">
-        <v>1</v>
-      </c>
-      <c r="E249">
-        <v>0</v>
-      </c>
-      <c r="F249">
-        <v>1</v>
-      </c>
-      <c r="G249" t="b">
-        <v>0</v>
-      </c>
-      <c r="H249">
-        <v>11</v>
-      </c>
       <c r="J249" s="1" t="s">
         <v>395</v>
       </c>
@@ -15432,7 +15384,7 @@
     </row>
     <row r="251" spans="1:17">
       <c r="J251" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K251">
         <v>0.001169830957737714</v>
@@ -15692,7 +15644,7 @@
     </row>
     <row r="261" spans="10:17">
       <c r="J261" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K261">
         <v>0.00101310332753434</v>
@@ -15900,7 +15852,7 @@
     </row>
     <row r="269" spans="10:17">
       <c r="J269" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K269">
         <v>0.00101310332753434</v>
@@ -16238,7 +16190,7 @@
     </row>
     <row r="282" spans="10:17">
       <c r="J282" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K282">
         <v>0.00101310332753434</v>
@@ -16394,7 +16346,7 @@
     </row>
     <row r="288" spans="10:17">
       <c r="J288" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K288">
         <v>0.00101310332753434</v>
@@ -16732,7 +16684,7 @@
     </row>
     <row r="301" spans="10:17">
       <c r="J301" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K301">
         <v>0.00101310332753434</v>
@@ -16810,7 +16762,7 @@
     </row>
     <row r="304" spans="10:17">
       <c r="J304" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K304">
         <v>0.00101310332753434</v>
@@ -16888,7 +16840,7 @@
     </row>
     <row r="307" spans="10:17">
       <c r="J307" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K307">
         <v>0.00101310332753434</v>
@@ -17278,7 +17230,7 @@
     </row>
     <row r="322" spans="10:17">
       <c r="J322" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K322">
         <v>0.00101310332753434</v>
@@ -17538,7 +17490,7 @@
     </row>
     <row r="332" spans="10:17">
       <c r="J332" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K332">
         <v>0.0008271954030582908</v>
@@ -17850,7 +17802,7 @@
     </row>
     <row r="344" spans="10:17">
       <c r="J344" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K344">
         <v>0.0008271954030582908</v>
@@ -18162,7 +18114,7 @@
     </row>
     <row r="356" spans="10:17">
       <c r="J356" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K356">
         <v>0.0008271954030582908</v>
@@ -18552,7 +18504,7 @@
     </row>
     <row r="371" spans="10:17">
       <c r="J371" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K371">
         <v>0.0008271954030582908</v>
@@ -18604,7 +18556,7 @@
     </row>
     <row r="373" spans="10:17">
       <c r="J373" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K373">
         <v>0.0008271954030582908</v>
@@ -18682,7 +18634,7 @@
     </row>
     <row r="376" spans="10:17">
       <c r="J376" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K376">
         <v>0.0008271954030582908</v>
@@ -18864,7 +18816,7 @@
     </row>
     <row r="383" spans="10:17">
       <c r="J383" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K383">
         <v>0.0008271954030582908</v>
@@ -20424,7 +20376,7 @@
     </row>
     <row r="443" spans="10:17">
       <c r="J443" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K443">
         <v>0.0008271954030582908</v>
@@ -20450,7 +20402,7 @@
     </row>
     <row r="444" spans="10:17">
       <c r="J444" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K444">
         <v>0.0008271954030582908</v>
@@ -20866,7 +20818,7 @@
     </row>
     <row r="460" spans="10:17">
       <c r="J460" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K460">
         <v>0.0005849154788688568</v>
@@ -21386,7 +21338,7 @@
     </row>
     <row r="480" spans="10:17">
       <c r="J480" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K480">
         <v>0.0005849154788688568</v>
@@ -23414,7 +23366,7 @@
     </row>
     <row r="558" spans="10:17">
       <c r="J558" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K558">
         <v>0.0005849154788688568</v>
@@ -23570,7 +23522,7 @@
     </row>
     <row r="564" spans="10:17">
       <c r="J564" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K564">
         <v>0.0005849154788688568</v>
@@ -24948,7 +24900,7 @@
     </row>
     <row r="617" spans="10:17">
       <c r="J617" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K617">
         <v>0.0005849154788688568</v>
@@ -25390,7 +25342,7 @@
     </row>
     <row r="634" spans="10:17">
       <c r="J634" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K634">
         <v>0.0005849154788688568</v>
@@ -26352,7 +26304,7 @@
     </row>
     <row r="671" spans="10:17">
       <c r="J671" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K671">
         <v>0.0005849154788688568</v>
@@ -26404,7 +26356,7 @@
     </row>
     <row r="673" spans="10:17">
       <c r="J673" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K673">
         <v>0.0005849154788688568</v>
@@ -26976,7 +26928,7 @@
     </row>
     <row r="695" spans="10:17">
       <c r="J695" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K695">
         <v>0.0005849154788688568</v>
@@ -27288,7 +27240,7 @@
     </row>
     <row r="707" spans="10:17">
       <c r="J707" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K707">
         <v>0.0005849154788688568</v>
@@ -27704,7 +27656,7 @@
     </row>
     <row r="723" spans="10:17">
       <c r="J723" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K723">
         <v>0.0005849154788688568</v>
@@ -28484,7 +28436,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K753">
         <v>0.0005849154788688568</v>
